--- a/Viswan_2018.xlsx
+++ b/Viswan_2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santos\Documents\Git\Thesis_Code\Subcellular_Workflow_Matlab\Model\Model_Viswan_2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E0AD5A-5F47-4E22-8C5D-0E4EB635D641}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36898C4C-0BEC-430F-9C5F-A043CCDFCE36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5370" yWindow="2220" windowWidth="28800" windowHeight="15472" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5370" yWindow="2220" windowWidth="28800" windowHeight="15472" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Defaults" sheetId="13" r:id="rId1"/>
@@ -1895,36 +1895,24 @@
     <t>K132</t>
   </si>
   <si>
-    <t>kf_R85</t>
-  </si>
-  <si>
     <t>PIP2XCa_PLC_g__DAGXIP3XCa_PLC_g_1</t>
   </si>
   <si>
     <t>K133</t>
   </si>
   <si>
-    <t>kr_R85</t>
-  </si>
-  <si>
     <t>PIP2XCa_PLC_g__DAGXIP3XCa_PLC_g_2</t>
   </si>
   <si>
     <t>K134</t>
   </si>
   <si>
-    <t>kf_R86</t>
-  </si>
-  <si>
     <t>PIP2XCa_PLC_g_p__DAGXIP3XCa_PLC_g_p_1</t>
   </si>
   <si>
     <t>K135</t>
   </si>
   <si>
-    <t>kr_R86</t>
-  </si>
-  <si>
     <t>PIP2XCa_PLC_g_p__DAGXIP3XCa_PLC_g_p_2</t>
   </si>
   <si>
@@ -3173,9 +3161,6 @@
     <t>ReactionFlux84</t>
   </si>
   <si>
-    <t>(kf_R85*PIP2*Ca_PLC_g/(kr_R85+PIP2))</t>
-  </si>
-  <si>
     <t>Henri-Michaelis-Menten</t>
   </si>
   <si>
@@ -3188,9 +3173,6 @@
     <t>ReactionFlux85</t>
   </si>
   <si>
-    <t>(kf_R86*PIP2*Ca_PLC_g_p/(kr_R86+PIP2))</t>
-  </si>
-  <si>
     <t>PIP2 + Ca_PLC_g_p &lt;=&gt; DAG + IP3 + Ca_PLC_g_p</t>
   </si>
   <si>
@@ -3702,6 +3684,24 @@
   </si>
   <si>
     <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='E1I' TableTitle='Viswan_2018 E1I' TableType = 'QuantityMatrix'</t>
+  </si>
+  <si>
+    <t>(Vmax_R86*PIP2*Ca_PLC_g_p/(Kcat_R86+PIP2))</t>
+  </si>
+  <si>
+    <t>(Vmax_R85*PIP2*Ca_PLC_g/(Kcat_R85+PIP2))</t>
+  </si>
+  <si>
+    <t>Kcat_R85</t>
+  </si>
+  <si>
+    <t>Kcat_R86</t>
+  </si>
+  <si>
+    <t>Vmax_R85</t>
+  </si>
+  <si>
+    <t>Vmax_R86</t>
   </si>
 </sst>
 </file>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -4092,57 +4092,57 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="B3" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="C3" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="B4" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="C4" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="B5" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="C5" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="B6" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="C6" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="B7" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="C7" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
     </row>
   </sheetData>
@@ -4165,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -4173,15 +4173,15 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="C2" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4192,7 +4192,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="B4">
         <v>2100</v>
@@ -4221,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4229,18 +4229,18 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="C2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="D2" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="B3">
         <v>3600</v>
@@ -4254,7 +4254,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B4">
         <v>3900</v>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="B5">
         <v>5400</v>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="B6">
         <v>7200</v>
@@ -4296,7 +4296,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="B7">
         <v>14400</v>
@@ -4310,7 +4310,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="B8">
         <v>36000</v>
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -4350,15 +4350,15 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="C2" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4369,7 +4369,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="B4">
         <v>3600</v>
@@ -4387,7 +4387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483A01AC-D3B1-48E9-BD0D-1079AB636080}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -4403,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4417,18 +4417,18 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="D3" s="2">
         <v>1.0000000000000001E-15</v>
@@ -4443,7 +4443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A53" workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
@@ -4463,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -4506,7 +4506,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -4538,7 +4538,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -4570,7 +4570,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -4602,7 +4602,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -4634,7 +4634,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D8" s="1">
         <v>2.0000000000063099E-2</v>
@@ -4698,7 +4698,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -4730,7 +4730,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -4762,7 +4762,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -4794,7 +4794,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -4826,7 +4826,7 @@
         <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -4852,13 +4852,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -4884,13 +4884,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D15" s="1">
         <v>0.399999999999685</v>
@@ -4922,7 +4922,7 @@
         <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -4954,7 +4954,7 @@
         <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -4986,7 +4986,7 @@
         <v>42</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -5018,7 +5018,7 @@
         <v>44</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -5050,7 +5050,7 @@
         <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D20" s="1">
         <v>30.0007914522125</v>
@@ -5082,7 +5082,7 @@
         <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -5114,7 +5114,7 @@
         <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -5146,7 +5146,7 @@
         <v>52</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -5178,7 +5178,7 @@
         <v>54</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D24" s="1">
         <v>0.79999999999936899</v>
@@ -5210,7 +5210,7 @@
         <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -5242,7 +5242,7 @@
         <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -5274,7 +5274,7 @@
         <v>60</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -5306,7 +5306,7 @@
         <v>62</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -5338,7 +5338,7 @@
         <v>64</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -5370,7 +5370,7 @@
         <v>66</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -5402,7 +5402,7 @@
         <v>68</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D31" s="1">
         <v>0.73000395726099898</v>
@@ -5434,7 +5434,7 @@
         <v>70</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D32" s="1">
         <v>6.99999999999054</v>
@@ -5466,7 +5466,7 @@
         <v>72</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>74</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D34" s="1">
         <v>0.20000000000063098</v>
@@ -5530,7 +5530,7 @@
         <v>76</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -5562,7 +5562,7 @@
         <v>78</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D36" s="1">
         <v>0.18000791452300802</v>
@@ -5594,7 +5594,7 @@
         <v>80</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D37" s="1">
         <v>0.36000000000050497</v>
@@ -5626,7 +5626,7 @@
         <v>82</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -5658,7 +5658,7 @@
         <v>84</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
@@ -5690,7 +5690,7 @@
         <v>86</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
@@ -5722,7 +5722,7 @@
         <v>88</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -5754,7 +5754,7 @@
         <v>90</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
@@ -5786,7 +5786,7 @@
         <v>92</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -5818,7 +5818,7 @@
         <v>94</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D44" s="1">
         <v>0.1</v>
@@ -5850,7 +5850,7 @@
         <v>96</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -5882,7 +5882,7 @@
         <v>98</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>100</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D47" s="1">
         <v>0.5</v>
@@ -5946,7 +5946,7 @@
         <v>102</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>104</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D49" s="1">
         <v>2.0000000000063099E-2</v>
@@ -6010,7 +6010,7 @@
         <v>106</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>108</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
@@ -6074,7 +6074,7 @@
         <v>110</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D52" s="1">
         <v>0.16666402849294001</v>
@@ -6106,7 +6106,7 @@
         <v>112</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
@@ -6138,7 +6138,7 @@
         <v>114</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
@@ -6170,7 +6170,7 @@
         <v>116</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -6202,7 +6202,7 @@
         <v>118</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
@@ -6234,7 +6234,7 @@
         <v>120</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D57" s="1">
         <v>0.50000791452275606</v>
@@ -6266,7 +6266,7 @@
         <v>122</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
@@ -6298,7 +6298,7 @@
         <v>124</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>126</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D60" s="1">
         <v>1</v>
@@ -6362,7 +6362,7 @@
         <v>128</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -6394,7 +6394,7 @@
         <v>130</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
@@ -6426,7 +6426,7 @@
         <v>132</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D63" s="1">
         <v>0.1</v>
@@ -6458,7 +6458,7 @@
         <v>134</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
@@ -6490,7 +6490,7 @@
         <v>136</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D65" s="1">
         <v>0.82000791452250299</v>
@@ -6522,7 +6522,7 @@
         <v>138</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
@@ -6554,7 +6554,7 @@
         <v>140</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
@@ -6586,7 +6586,7 @@
         <v>142</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
@@ -6618,7 +6618,7 @@
         <v>144</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D69" s="1">
         <v>7.00023743568898E-4</v>
@@ -6650,7 +6650,7 @@
         <v>146</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D70" s="1">
         <v>2.0000000000063099E-2</v>
@@ -6682,7 +6682,7 @@
         <v>148</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D71" s="1">
         <v>0.26000791452294497</v>
@@ -6714,7 +6714,7 @@
         <v>150</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D72" s="1">
         <v>7.9999999999936899E-2</v>
@@ -6746,7 +6746,7 @@
         <v>152</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -6778,7 +6778,7 @@
         <v>154</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
@@ -6810,7 +6810,7 @@
         <v>156</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
@@ -6842,7 +6842,7 @@
         <v>158</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
@@ -6874,7 +6874,7 @@
         <v>160</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
@@ -6906,7 +6906,7 @@
         <v>162</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
@@ -6938,7 +6938,7 @@
         <v>164</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
@@ -6970,7 +6970,7 @@
         <v>166</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
@@ -7002,7 +7002,7 @@
         <v>168</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
@@ -7034,7 +7034,7 @@
         <v>170</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
@@ -7066,7 +7066,7 @@
         <v>172</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
@@ -7098,7 +7098,7 @@
         <v>174</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
@@ -7130,7 +7130,7 @@
         <v>176</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D85" s="1">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>178</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D86" s="1">
         <v>0</v>
@@ -7194,7 +7194,7 @@
         <v>180</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D87" s="1">
         <v>0</v>
@@ -7226,7 +7226,7 @@
         <v>182</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
@@ -7258,7 +7258,7 @@
         <v>184</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D89" s="1">
         <v>0</v>
@@ -7290,7 +7290,7 @@
         <v>186</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D90" s="1">
         <v>0</v>
@@ -7322,7 +7322,7 @@
         <v>188</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
@@ -7354,7 +7354,7 @@
         <v>190</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D92" s="1">
         <v>0</v>
@@ -7386,7 +7386,7 @@
         <v>192</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
@@ -7418,7 +7418,7 @@
         <v>194</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D94" s="1">
         <v>0</v>
@@ -7450,7 +7450,7 @@
         <v>196</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D95" s="1">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>198</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D96" s="1">
         <v>0</v>
@@ -7514,7 +7514,7 @@
         <v>200</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D97" s="1">
         <v>0</v>
@@ -7546,7 +7546,7 @@
         <v>202</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D98" s="1">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>204</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D99" s="1">
         <v>0</v>
@@ -7610,7 +7610,7 @@
         <v>206</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D100" s="1">
         <v>0</v>
@@ -7642,7 +7642,7 @@
         <v>208</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D101" s="1">
         <v>0</v>
@@ -7674,7 +7674,7 @@
         <v>210</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D102" s="1">
         <v>0</v>
@@ -7706,7 +7706,7 @@
         <v>212</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D103" s="1">
         <v>0</v>
@@ -7738,7 +7738,7 @@
         <v>214</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D104" s="1">
         <v>0</v>
@@ -7771,8 +7771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K162"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7794,7 +7794,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -7808,10 +7808,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>215</v>
@@ -7837,13 +7837,13 @@
         <v>220</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D3" s="1">
         <v>-0.22185001992911629</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F3" s="1">
         <f>LOG(G3,2)</f>
@@ -7878,7 +7878,7 @@
         <v>-0.3010299956639812</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ref="F4:F67" si="1">LOG(G4,2)</f>
@@ -7907,13 +7907,13 @@
         <v>227</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D5" s="1">
         <v>-2.0969181425324788</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
@@ -7948,7 +7948,7 @@
         <v>0.93625228285283602</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
@@ -7983,7 +7983,7 @@
         <v>0.10397466938638814</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
@@ -8018,7 +8018,7 @@
         <v>0.54439054333774783</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="1"/>
@@ -8053,7 +8053,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
@@ -8088,7 +8088,7 @@
         <v>-1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
@@ -8117,13 +8117,13 @@
         <v>245</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D11" s="1">
         <v>-2.9208154515160163</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="1"/>
@@ -8158,7 +8158,7 @@
         <v>-1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
@@ -8193,7 +8193,7 @@
         <v>0.3010299956639812</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
@@ -8228,7 +8228,7 @@
         <v>-0.69897000433601875</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
@@ -8263,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="1"/>
@@ -8298,7 +8298,7 @@
         <v>1.6989700043360187</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="1"/>
@@ -8327,13 +8327,13 @@
         <v>263</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D17" s="1">
         <v>-3.9208154515160163</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="1"/>
@@ -8368,7 +8368,7 @@
         <v>-1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="1"/>
@@ -8397,13 +8397,13 @@
         <v>269</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D19" s="1">
         <v>-3.2218500199291165</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="1"/>
@@ -8438,7 +8438,7 @@
         <v>-1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="1"/>
@@ -8467,13 +8467,13 @@
         <v>275</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D21" s="1">
         <v>-1.7447318137356149</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="1"/>
@@ -8508,7 +8508,7 @@
         <v>0.3010299956639812</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="1"/>
@@ -8537,13 +8537,13 @@
         <v>281</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D23" s="1">
         <v>-1.2703118420192648E-6</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="1"/>
@@ -8578,7 +8578,7 @@
         <v>-1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="1"/>
@@ -8607,13 +8607,13 @@
         <v>287</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D25" s="1">
         <v>-2.5228800155930973</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="1"/>
@@ -8648,7 +8648,7 @@
         <v>0.6020599913279624</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="1"/>
@@ -8683,7 +8683,7 @@
         <v>-0.3979400086720376</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="1"/>
@@ -8712,13 +8712,13 @@
         <v>296</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D28" s="1">
         <v>0.77814998007088365</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="1"/>
@@ -8753,7 +8753,7 @@
         <v>-1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="1"/>
@@ -8788,7 +8788,7 @@
         <v>-0.769551078621726</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="1"/>
@@ -8817,13 +8817,13 @@
         <v>305</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D31" s="1">
         <v>0.47711998440690245</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="1"/>
@@ -8858,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="1"/>
@@ -8893,7 +8893,7 @@
         <v>0.3979400086720376</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="1"/>
@@ -8928,7 +8928,7 @@
         <v>-0.82390874094431876</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="1"/>
@@ -8957,13 +8957,13 @@
         <v>317</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D35" s="1">
         <v>1.4771199844069025</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="1"/>
@@ -8998,7 +8998,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="1"/>
@@ -9027,13 +9027,13 @@
         <v>323</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D37" s="1">
         <v>0.99996815115037152</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="1"/>
@@ -9068,7 +9068,7 @@
         <v>-0.3010299956639812</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="1"/>
@@ -9103,7 +9103,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="1"/>
@@ -9138,7 +9138,7 @@
         <v>-4</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="1"/>
@@ -9173,7 +9173,7 @@
         <v>-1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="1"/>
@@ -9208,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="1"/>
@@ -9237,13 +9237,13 @@
         <v>341</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D43" s="1">
         <v>0.62324932658914622</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="1"/>
@@ -9278,7 +9278,7 @@
         <v>-0.6020599913279624</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="1"/>
@@ -9313,7 +9313,7 @@
         <v>-2.6989700043360187</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="1"/>
@@ -9348,7 +9348,7 @@
         <v>-3.4814860601221125</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="1"/>
@@ -9383,7 +9383,7 @@
         <v>-0.69897000433601875</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="1"/>
@@ -9412,13 +9412,13 @@
         <v>356</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D48" s="1">
         <v>-0.30104772826912196</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="1"/>
@@ -9453,7 +9453,7 @@
         <v>-1</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="1"/>
@@ -9482,13 +9482,13 @@
         <v>362</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D50" s="1">
         <v>-1.6020557743488411</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="1"/>
@@ -9523,7 +9523,7 @@
         <v>-1.7746907182741372</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="1"/>
@@ -9558,7 +9558,7 @@
         <v>-3</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="1"/>
@@ -9587,13 +9587,13 @@
         <v>371</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D53" s="1">
         <v>-1.6020557743488411</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="1"/>
@@ -9628,7 +9628,7 @@
         <v>-1.7746907182741372</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" si="1"/>
@@ -9657,13 +9657,13 @@
         <v>377</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D55" s="1">
         <v>-1.2703118420192648E-6</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="1"/>
@@ -9698,7 +9698,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" si="1"/>
@@ -9727,13 +9727,13 @@
         <v>383</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D57" s="1">
         <v>2.2552681862643853</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="1"/>
@@ -9768,7 +9768,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F58" s="1">
         <f t="shared" si="1"/>
@@ -9797,13 +9797,13 @@
         <v>389</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D59" s="1">
         <v>1.0791845484839835</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F59" s="1">
         <f t="shared" si="1"/>
@@ -9838,7 +9838,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" si="1"/>
@@ -9873,7 +9873,7 @@
         <v>-1.3010299956639813</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" si="1"/>
@@ -9908,7 +9908,7 @@
         <v>-1.1549019599857431</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="1"/>
@@ -9937,13 +9937,13 @@
         <v>401</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D63" s="1">
         <v>-2.2375193560962289E-2</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="1"/>
@@ -9978,7 +9978,7 @@
         <v>1.2041199826559248</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="1"/>
@@ -10013,7 +10013,7 @@
         <v>0.6020599913279624</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="1"/>
@@ -10042,13 +10042,13 @@
         <v>410</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D66" s="1">
         <v>0.75255237739920378</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="1"/>
@@ -10083,7 +10083,7 @@
         <v>1.2041199826559248</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" si="1"/>
@@ -10118,7 +10118,7 @@
         <v>0.6020599913279624</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" ref="F68:F131" si="3">LOG(G68,2)</f>
@@ -10147,13 +10147,13 @@
         <v>419</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D69" s="1">
         <v>0.75255237739920378</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" si="3"/>
@@ -10188,7 +10188,7 @@
         <v>1.2041199826559248</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" si="3"/>
@@ -10223,7 +10223,7 @@
         <v>0.6020599913279624</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" si="3"/>
@@ -10252,13 +10252,13 @@
         <v>428</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D72" s="1">
         <v>0.10473489550986602</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" si="3"/>
@@ -10293,7 +10293,7 @@
         <v>1.3344537511509309</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" si="3"/>
@@ -10328,7 +10328,7 @@
         <v>0.7323937598229685</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" si="3"/>
@@ -10357,13 +10357,13 @@
         <v>437</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D75" s="1">
         <v>0.41531020908033411</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="3"/>
@@ -10398,7 +10398,7 @@
         <v>1.6450290647211425</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="3"/>
@@ -10433,7 +10433,7 @@
         <v>1.04296907339318</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="3"/>
@@ -10462,13 +10462,13 @@
         <v>446</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D78" s="1">
         <v>0.92864363645633996</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="3"/>
@@ -10503,7 +10503,7 @@
         <v>2.1583624920952498</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" si="3"/>
@@ -10538,7 +10538,7 @@
         <v>1.5563025007672873</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F80" s="1">
         <f t="shared" si="3"/>
@@ -10567,13 +10567,13 @@
         <v>455</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D81" s="1">
         <v>1.1504923860707554</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F81" s="1">
         <f t="shared" si="3"/>
@@ -10608,7 +10608,7 @@
         <v>2.3802112417116059</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F82" s="1">
         <f t="shared" si="3"/>
@@ -10643,7 +10643,7 @@
         <v>1.7781512503836436</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F83" s="1">
         <f t="shared" si="3"/>
@@ -10672,13 +10672,13 @@
         <v>464</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D84" s="1">
         <v>1.451522381734738</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F84" s="1">
         <f t="shared" si="3"/>
@@ -10713,7 +10713,7 @@
         <v>2.6812412373755872</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F85" s="1">
         <f t="shared" si="3"/>
@@ -10748,7 +10748,7 @@
         <v>2.0791812460476247</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F86" s="1">
         <f t="shared" si="3"/>
@@ -10777,13 +10777,13 @@
         <v>473</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D87" s="1">
         <v>0.37580166779671081</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F87" s="1">
         <f t="shared" si="3"/>
@@ -10818,7 +10818,7 @@
         <v>1.6020599913279623</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F88" s="1">
         <f t="shared" si="3"/>
@@ -10853,7 +10853,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F89" s="1">
         <f t="shared" si="3"/>
@@ -10882,13 +10882,13 @@
         <v>482</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D90" s="1">
         <v>1.6556423643913893</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F90" s="1">
         <f t="shared" si="3"/>
@@ -10923,7 +10923,7 @@
         <v>2.2833012287035497</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F91" s="1">
         <f t="shared" si="3"/>
@@ -10958,7 +10958,7 @@
         <v>1.6812412373755872</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F92" s="1">
         <f t="shared" si="3"/>
@@ -10987,13 +10987,13 @@
         <v>491</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D93" s="1">
         <v>0.56546573404202194</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F93" s="1">
         <f t="shared" si="3"/>
@@ -11028,7 +11028,7 @@
         <v>1.9030899869919435</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F94" s="1">
         <f t="shared" si="3"/>
@@ -11063,7 +11063,7 @@
         <v>1.3010299956639813</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F95" s="1">
         <f t="shared" si="3"/>
@@ -11092,13 +11092,13 @@
         <v>500</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D96" s="1">
         <v>0.26443573837803958</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F96" s="1">
         <f t="shared" si="3"/>
@@ -11133,7 +11133,7 @@
         <v>1.6020599913279623</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F97" s="1">
         <f t="shared" si="3"/>
@@ -11168,7 +11168,7 @@
         <v>1</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F98" s="1">
         <f t="shared" si="3"/>
@@ -11197,13 +11197,13 @@
         <v>509</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D99" s="1">
         <v>1.2644357383780396</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F99" s="1">
         <f t="shared" si="3"/>
@@ -11238,7 +11238,7 @@
         <v>1.6020599913279623</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F100" s="1">
         <f t="shared" si="3"/>
@@ -11273,7 +11273,7 @@
         <v>1</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F101" s="1">
         <f t="shared" si="3"/>
@@ -11302,13 +11302,13 @@
         <v>518</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D102" s="1">
         <v>1.1839161415585691</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F102" s="1">
         <f t="shared" si="3"/>
@@ -11343,7 +11343,7 @@
         <v>-0.22184874961635639</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F103" s="1">
         <f t="shared" si="3"/>
@@ -11378,7 +11378,7 @@
         <v>-0.82390874094431876</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F104" s="1">
         <f t="shared" si="3"/>
@@ -11407,13 +11407,13 @@
         <v>527</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D105" s="1">
         <v>1.1839161415585691</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F105" s="1">
         <f t="shared" si="3"/>
@@ -11448,7 +11448,7 @@
         <v>-0.22184874961635639</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F106" s="1">
         <f t="shared" si="3"/>
@@ -11483,7 +11483,7 @@
         <v>-0.82390874094431876</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F107" s="1">
         <f t="shared" si="3"/>
@@ -11512,13 +11512,13 @@
         <v>536</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D108" s="1">
         <v>0.94884702254462705</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F108" s="1">
         <f t="shared" si="3"/>
@@ -11553,7 +11553,7 @@
         <v>7.9181246047624818E-2</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F109" s="1">
         <f t="shared" si="3"/>
@@ -11588,7 +11588,7 @@
         <v>-0.52287874528033762</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F110" s="1">
         <f t="shared" si="3"/>
@@ -11617,13 +11617,13 @@
         <v>545</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D111" s="1">
         <v>0.94884702254462705</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F111" s="1">
         <f t="shared" si="3"/>
@@ -11658,7 +11658,7 @@
         <v>7.9181246047624818E-2</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F112" s="1">
         <f t="shared" si="3"/>
@@ -11693,7 +11693,7 @@
         <v>-0.52287874528033762</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F113" s="1">
         <f t="shared" si="3"/>
@@ -11722,13 +11722,13 @@
         <v>554</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D114" s="1">
         <v>-2.023562183190132</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F114" s="1">
         <f t="shared" si="3"/>
@@ -11763,7 +11763,7 @@
         <v>-1.0969100130080565</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F115" s="1">
         <f t="shared" si="3"/>
@@ -11798,7 +11798,7 @@
         <v>-1.6989700043360187</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F116" s="1">
         <f t="shared" si="3"/>
@@ -11827,13 +11827,13 @@
         <v>563</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D117" s="1">
         <v>-0.72893368272351255</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F117" s="1">
         <f t="shared" si="3"/>
@@ -11868,7 +11868,7 @@
         <v>-1.0969100130080565</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F118" s="1">
         <f t="shared" si="3"/>
@@ -11903,7 +11903,7 @@
         <v>-1.6989700043360187</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F119" s="1">
         <f t="shared" si="3"/>
@@ -11932,13 +11932,13 @@
         <v>572</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D120" s="1">
         <v>1.6688837502421359</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F120" s="1">
         <f t="shared" si="3"/>
@@ -11973,7 +11973,7 @@
         <v>1.6020599913279623</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F121" s="1">
         <f t="shared" si="3"/>
@@ -12008,7 +12008,7 @@
         <v>1</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F122" s="1">
         <f t="shared" si="3"/>
@@ -12037,13 +12037,13 @@
         <v>581</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D123" s="1">
         <v>0.27106631727648739</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F123" s="1">
         <f t="shared" si="3"/>
@@ -12078,7 +12078,7 @@
         <v>-9.6910013008056392E-2</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F124" s="1">
         <f t="shared" si="3"/>
@@ -12113,7 +12113,7 @@
         <v>-0.69897000433601875</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F125" s="1">
         <f t="shared" si="3"/>
@@ -12142,13 +12142,13 @@
         <v>590</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D126" s="1">
         <v>0.45152238173473652</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F126" s="1">
         <f t="shared" si="3"/>
@@ -12183,7 +12183,7 @@
         <v>-9.6910013008056392E-2</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F127" s="1">
         <f t="shared" si="3"/>
@@ -12218,7 +12218,7 @@
         <v>-0.69897000433601875</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F128" s="1">
         <f t="shared" si="3"/>
@@ -12247,13 +12247,13 @@
         <v>599</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D129" s="1">
         <v>5.3582373062212973E-2</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F129" s="1">
         <f t="shared" si="3"/>
@@ -12288,7 +12288,7 @@
         <v>-9.6910013008056392E-2</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F130" s="1">
         <f t="shared" si="3"/>
@@ -12323,7 +12323,7 @@
         <v>-0.69897000433601875</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F131" s="1">
         <f t="shared" si="3"/>
@@ -12352,13 +12352,13 @@
         <v>608</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D132" s="1">
         <v>0.27106631727648739</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F132" s="1">
         <f t="shared" ref="F132:F162" si="5">LOG(G132,2)</f>
@@ -12393,7 +12393,7 @@
         <v>-9.6910013008056392E-2</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F133" s="1">
         <f t="shared" si="5"/>
@@ -12428,7 +12428,7 @@
         <v>-0.69897000433601875</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F134" s="1">
         <f t="shared" si="5"/>
@@ -12454,7 +12454,7 @@
         <v>616</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>617</v>
+        <v>1218</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>224</v>
@@ -12463,7 +12463,7 @@
         <v>1.146128035678238</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F135" s="1">
         <f>LOG(G135,2)</f>
@@ -12480,25 +12480,25 @@
         <v>14</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K135"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>620</v>
+        <v>1216</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D136" s="1">
         <v>1.9877622411489231</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F136" s="1">
         <f>LOG(G136,2)</f>
@@ -12515,16 +12515,16 @@
         <v>14</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="K136"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>623</v>
+        <v>1219</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>224</v>
@@ -12533,7 +12533,7 @@
         <v>1.7558748556724915</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F137" s="1">
         <f t="shared" si="5"/>
@@ -12550,25 +12550,25 @@
         <v>14</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="K137"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>626</v>
+        <v>1217</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="D138" s="1">
         <v>1.2964790654772824</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F138" s="1">
         <f t="shared" si="5"/>
@@ -12585,25 +12585,25 @@
         <v>14</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="K138"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D139" s="1">
         <v>0.90162804695170085</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F139" s="1">
         <f t="shared" si="5"/>
@@ -12620,16 +12620,16 @@
         <v>14</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="K139"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>224</v>
@@ -12638,7 +12638,7 @@
         <v>0.3010299956639812</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F140" s="1">
         <f t="shared" si="5"/>
@@ -12655,16 +12655,16 @@
         <v>14</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="K140"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>224</v>
@@ -12673,7 +12673,7 @@
         <v>-0.3010299956639812</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F141" s="1">
         <f t="shared" si="5"/>
@@ -12690,25 +12690,25 @@
         <v>14</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="K141"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D142" s="1">
         <v>0.43373423038028014</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F142" s="1">
         <f t="shared" si="5"/>
@@ -12725,16 +12725,16 @@
         <v>14</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="K142"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>224</v>
@@ -12743,7 +12743,7 @@
         <v>1.2041199826559248</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F143" s="1">
         <f t="shared" si="5"/>
@@ -12760,16 +12760,16 @@
         <v>14</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="K143"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>224</v>
@@ -12778,7 +12778,7 @@
         <v>0.6020599913279624</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F144" s="1">
         <f t="shared" si="5"/>
@@ -12795,25 +12795,25 @@
         <v>14</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="K144"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D145" s="1">
         <v>0.43373423038028014</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F145" s="1">
         <f t="shared" si="5"/>
@@ -12830,16 +12830,16 @@
         <v>14</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="K145"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>224</v>
@@ -12848,7 +12848,7 @@
         <v>1.2041199826559248</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F146" s="1">
         <f t="shared" si="5"/>
@@ -12865,16 +12865,16 @@
         <v>14</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="K146"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>224</v>
@@ -12883,7 +12883,7 @@
         <v>0.6020599913279624</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F147" s="1">
         <f t="shared" si="5"/>
@@ -12900,25 +12900,25 @@
         <v>14</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="K147"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D148" s="1">
         <v>0.27106631727648739</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F148" s="1">
         <f t="shared" si="5"/>
@@ -12935,16 +12935,16 @@
         <v>14</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="K148"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>224</v>
@@ -12953,7 +12953,7 @@
         <v>1.3979400086720377</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F149" s="1">
         <f t="shared" si="5"/>
@@ -12970,16 +12970,16 @@
         <v>14</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K149"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>224</v>
@@ -12988,7 +12988,7 @@
         <v>0.77815125038364363</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F150" s="1">
         <f t="shared" si="5"/>
@@ -13005,25 +13005,25 @@
         <v>14</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="K150"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D151" s="1">
         <v>0.27106631727648739</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F151" s="1">
         <f t="shared" si="5"/>
@@ -13040,16 +13040,16 @@
         <v>14</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="K151"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>224</v>
@@ -13058,7 +13058,7 @@
         <v>1.3979400086720377</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F152" s="1">
         <f t="shared" si="5"/>
@@ -13075,16 +13075,16 @@
         <v>14</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="K152"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>224</v>
@@ -13093,7 +13093,7 @@
         <v>0.77815125038364363</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F153" s="1">
         <f t="shared" si="5"/>
@@ -13110,25 +13110,25 @@
         <v>14</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="K153"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D154" s="1">
         <v>0.27106631727648739</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F154" s="1">
         <f t="shared" si="5"/>
@@ -13145,16 +13145,16 @@
         <v>14</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="K154"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>224</v>
@@ -13163,7 +13163,7 @@
         <v>1.3979400086720377</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F155" s="1">
         <f t="shared" si="5"/>
@@ -13180,16 +13180,16 @@
         <v>14</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="K155"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>224</v>
@@ -13198,7 +13198,7 @@
         <v>0.77815125038364363</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F156" s="1">
         <f t="shared" si="5"/>
@@ -13215,25 +13215,25 @@
         <v>14</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="K156"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D157" s="1">
         <v>0.27106631727648739</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F157" s="1">
         <f t="shared" si="5"/>
@@ -13250,16 +13250,16 @@
         <v>14</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="K157"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>224</v>
@@ -13268,7 +13268,7 @@
         <v>1.3979400086720377</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F158" s="1">
         <f t="shared" si="5"/>
@@ -13285,16 +13285,16 @@
         <v>14</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="K158"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>224</v>
@@ -13303,7 +13303,7 @@
         <v>0.77815125038364363</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F159" s="1">
         <f t="shared" si="5"/>
@@ -13320,25 +13320,25 @@
         <v>14</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="K159"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D160" s="1">
         <v>0.25682879620936039</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F160" s="1">
         <f t="shared" si="5"/>
@@ -13355,16 +13355,16 @@
         <v>14</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="K160"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>224</v>
@@ -13373,7 +13373,7 @@
         <v>1.3802112417116059</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F161" s="1">
         <f t="shared" si="5"/>
@@ -13390,16 +13390,16 @@
         <v>14</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="K161"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>224</v>
@@ -13408,7 +13408,7 @@
         <v>0.77815125038364363</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F162" s="1">
         <f t="shared" si="5"/>
@@ -13425,7 +13425,7 @@
         <v>14</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="K162"/>
     </row>
@@ -13440,8 +13440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G103"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87:D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13459,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -13470,30 +13470,30 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D2" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G2" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B3" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D3" t="b">
         <f>TRUE()</f>
@@ -13503,21 +13503,21 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G3" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B4" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C4" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D4" t="b">
         <f>TRUE()</f>
@@ -13527,21 +13527,21 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B5" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C5" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D5" t="b">
         <f>TRUE()</f>
@@ -13551,21 +13551,21 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G5" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B6" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C6" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D6" t="b">
         <f>TRUE()</f>
@@ -13575,21 +13575,21 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G6" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B7" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C7" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="D7" t="b">
         <f>TRUE()</f>
@@ -13599,21 +13599,21 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G7" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B8" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C8" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="D8" t="b">
         <f>TRUE()</f>
@@ -13623,21 +13623,21 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G8" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B9" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C9" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D9" t="b">
         <f>TRUE()</f>
@@ -13647,21 +13647,21 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G9" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B10" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C10" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D10" t="b">
         <f>TRUE()</f>
@@ -13671,21 +13671,21 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G10" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B11" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C11" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D11" t="b">
         <f>TRUE()</f>
@@ -13695,21 +13695,21 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G11" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B12" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C12" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D12" t="b">
         <f>TRUE()</f>
@@ -13719,21 +13719,21 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G12" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B13" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C13" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D13" t="b">
         <f>TRUE()</f>
@@ -13743,21 +13743,21 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G13" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B14" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C14" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D14" t="b">
         <f>TRUE()</f>
@@ -13767,21 +13767,21 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G14" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B15" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C15" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="D15" t="b">
         <f>FALSE()</f>
@@ -13791,21 +13791,21 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G15" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="B16" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C16" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="D16" t="b">
         <f>TRUE()</f>
@@ -13815,21 +13815,21 @@
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G16" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B17" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="C17" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="D17" t="b">
         <f>FALSE()</f>
@@ -13839,21 +13839,21 @@
         <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G17" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B18" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C18" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="D18" t="b">
         <f>TRUE()</f>
@@ -13863,21 +13863,21 @@
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G18" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B19" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C19" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="D19" t="b">
         <f>FALSE()</f>
@@ -13887,21 +13887,21 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G19" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B20" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C20" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="D20" t="b">
         <f>FALSE()</f>
@@ -13911,21 +13911,21 @@
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G20" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B21" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C21" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="D21" t="b">
         <f>TRUE()</f>
@@ -13935,21 +13935,21 @@
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G21" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B22" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C22" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D22" t="b">
         <f>TRUE()</f>
@@ -13959,21 +13959,21 @@
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G22" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="B23" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C23" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="D23" t="b">
         <f>FALSE()</f>
@@ -13983,21 +13983,21 @@
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G23" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B24" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C24" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="D24" t="b">
         <f>FALSE()</f>
@@ -14007,21 +14007,21 @@
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G24" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B25" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C25" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D25" t="b">
         <f>FALSE()</f>
@@ -14031,21 +14031,21 @@
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G25" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B26" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C26" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="D26" t="b">
         <f>FALSE()</f>
@@ -14055,21 +14055,21 @@
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G26" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="B27" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="C27" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="D27" t="b">
         <f>TRUE()</f>
@@ -14079,21 +14079,21 @@
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G27" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="B28" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="C28" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D28" t="b">
         <f>TRUE()</f>
@@ -14103,21 +14103,21 @@
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G28" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B29" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="C29" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="D29" t="b">
         <f>FALSE()</f>
@@ -14127,21 +14127,21 @@
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G29" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B30" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C30" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="D30" t="b">
         <f>TRUE()</f>
@@ -14151,21 +14151,21 @@
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G30" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B31" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="C31" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="D31" t="b">
         <f>TRUE()</f>
@@ -14175,21 +14175,21 @@
         <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G31" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B32" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C32" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D32" t="b">
         <f>FALSE()</f>
@@ -14199,21 +14199,21 @@
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G32" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="B33" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C33" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="D33" t="b">
         <f>TRUE()</f>
@@ -14223,21 +14223,21 @@
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G33" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B34" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="C34" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="D34" t="b">
         <f>TRUE()</f>
@@ -14247,21 +14247,21 @@
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G34" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="B35" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="C35" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="D35" t="b">
         <f>TRUE()</f>
@@ -14271,21 +14271,21 @@
         <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G35" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B36" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="C36" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="D36" t="b">
         <f>TRUE()</f>
@@ -14295,21 +14295,21 @@
         <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G36" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B37" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C37" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="D37" t="b">
         <f>FALSE()</f>
@@ -14319,21 +14319,21 @@
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G37" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="B38" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="C38" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="D38" t="b">
         <f>FALSE()</f>
@@ -14343,21 +14343,21 @@
         <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G38" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B39" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="C39" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="D39" t="b">
         <f>TRUE()</f>
@@ -14367,21 +14367,21 @@
         <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G39" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B40" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="C40" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D40" t="b">
         <f>FALSE()</f>
@@ -14391,21 +14391,21 @@
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G40" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B41" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C41" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="D41" t="b">
         <f>TRUE()</f>
@@ -14415,21 +14415,21 @@
         <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G41" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B42" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="C42" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="D42" t="b">
         <f>FALSE()</f>
@@ -14439,21 +14439,21 @@
         <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G42" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="B43" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="C43" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="D43" t="b">
         <f>TRUE()</f>
@@ -14463,21 +14463,21 @@
         <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G43" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="B44" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="C44" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="D44" t="b">
         <f>FALSE()</f>
@@ -14487,21 +14487,21 @@
         <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G44" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="B45" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="C45" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="D45" t="b">
         <f>TRUE()</f>
@@ -14511,21 +14511,21 @@
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G45" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="B46" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="C46" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="D46" t="b">
         <f>FALSE()</f>
@@ -14535,21 +14535,21 @@
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G46" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="B47" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="C47" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="D47" t="b">
         <f>TRUE()</f>
@@ -14559,21 +14559,21 @@
         <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G47" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="B48" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="C48" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="D48" t="b">
         <f>FALSE()</f>
@@ -14583,21 +14583,21 @@
         <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G48" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="B49" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="C49" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="D49" t="b">
         <f>TRUE()</f>
@@ -14607,21 +14607,21 @@
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G49" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="B50" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="C50" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="D50" t="b">
         <f>FALSE()</f>
@@ -14631,21 +14631,21 @@
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G50" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="B51" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="C51" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="D51" t="b">
         <f>TRUE()</f>
@@ -14655,21 +14655,21 @@
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G51" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="B52" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="C52" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="D52" t="b">
         <f>FALSE()</f>
@@ -14679,21 +14679,21 @@
         <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G52" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="B53" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="C53" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="D53" t="b">
         <f>TRUE()</f>
@@ -14703,21 +14703,21 @@
         <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G53" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="B54" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="C54" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D54" t="b">
         <f>FALSE()</f>
@@ -14727,21 +14727,21 @@
         <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G54" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="B55" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="C55" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="D55" t="b">
         <f>TRUE()</f>
@@ -14751,21 +14751,21 @@
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G55" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="B56" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="C56" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="D56" t="b">
         <f>FALSE()</f>
@@ -14775,21 +14775,21 @@
         <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G56" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="B57" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="C57" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D57" t="b">
         <f>TRUE()</f>
@@ -14799,21 +14799,21 @@
         <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G57" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="B58" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="C58" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="D58" t="b">
         <f>FALSE()</f>
@@ -14823,21 +14823,21 @@
         <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G58" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="B59" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C59" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="D59" t="b">
         <f>TRUE()</f>
@@ -14847,21 +14847,21 @@
         <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G59" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="B60" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="C60" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="D60" t="b">
         <f>FALSE()</f>
@@ -14871,21 +14871,21 @@
         <v>14</v>
       </c>
       <c r="F60" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G60" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="B61" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="C61" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="D61" t="b">
         <f>TRUE()</f>
@@ -14895,21 +14895,21 @@
         <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G61" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="B62" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="C62" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="D62" t="b">
         <f>FALSE()</f>
@@ -14919,21 +14919,21 @@
         <v>14</v>
       </c>
       <c r="F62" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G62" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="B63" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="C63" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="D63" t="b">
         <f>TRUE()</f>
@@ -14943,21 +14943,21 @@
         <v>14</v>
       </c>
       <c r="F63" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G63" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="B64" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="C64" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="D64" t="b">
         <f>FALSE()</f>
@@ -14967,21 +14967,21 @@
         <v>14</v>
       </c>
       <c r="F64" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G64" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="B65" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="C65" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="D65" t="b">
         <f>TRUE()</f>
@@ -14991,21 +14991,21 @@
         <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G65" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="B66" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="C66" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D66" t="b">
         <f>FALSE()</f>
@@ -15015,21 +15015,21 @@
         <v>14</v>
       </c>
       <c r="F66" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G66" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="B67" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C67" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="D67" t="b">
         <f>TRUE()</f>
@@ -15039,21 +15039,21 @@
         <v>14</v>
       </c>
       <c r="F67" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G67" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="B68" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="C68" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="D68" t="b">
         <f>FALSE()</f>
@@ -15063,21 +15063,21 @@
         <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G68" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="B69" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="C69" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="D69" t="b">
         <f>TRUE()</f>
@@ -15087,21 +15087,21 @@
         <v>14</v>
       </c>
       <c r="F69" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G69" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="B70" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="C70" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D70" t="b">
         <f>FALSE()</f>
@@ -15111,21 +15111,21 @@
         <v>14</v>
       </c>
       <c r="F70" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G70" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="B71" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="C71" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="D71" t="b">
         <f>TRUE()</f>
@@ -15135,21 +15135,21 @@
         <v>14</v>
       </c>
       <c r="F71" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G71" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="B72" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="C72" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="D72" t="b">
         <f>FALSE()</f>
@@ -15159,21 +15159,21 @@
         <v>14</v>
       </c>
       <c r="F72" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G72" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="B73" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="C73" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="D73" t="b">
         <f>TRUE()</f>
@@ -15183,21 +15183,21 @@
         <v>14</v>
       </c>
       <c r="F73" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G73" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="B74" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="C74" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="D74" t="b">
         <f>FALSE()</f>
@@ -15207,21 +15207,21 @@
         <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G74" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="B75" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="C75" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="D75" t="b">
         <f>TRUE()</f>
@@ -15231,21 +15231,21 @@
         <v>14</v>
       </c>
       <c r="F75" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G75" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="B76" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="C76" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="D76" t="b">
         <f>FALSE()</f>
@@ -15255,21 +15255,21 @@
         <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G76" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="B77" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="C77" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="D77" t="b">
         <f>TRUE()</f>
@@ -15279,21 +15279,21 @@
         <v>14</v>
       </c>
       <c r="F77" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G77" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B78" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C78" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="D78" t="b">
         <f>FALSE()</f>
@@ -15303,21 +15303,21 @@
         <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G78" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="B79" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="C79" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="D79" t="b">
         <f>TRUE()</f>
@@ -15327,21 +15327,21 @@
         <v>14</v>
       </c>
       <c r="F79" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G79" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="B80" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="C80" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="D80" t="b">
         <f>FALSE()</f>
@@ -15351,21 +15351,21 @@
         <v>14</v>
       </c>
       <c r="F80" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G80" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="B81" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="C81" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="D81" t="b">
         <f>TRUE()</f>
@@ -15375,21 +15375,21 @@
         <v>14</v>
       </c>
       <c r="F81" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G81" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B82" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="C82" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D82" t="b">
         <f>FALSE()</f>
@@ -15399,21 +15399,21 @@
         <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G82" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="B83" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="C83" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="D83" t="b">
         <f>TRUE()</f>
@@ -15423,21 +15423,21 @@
         <v>14</v>
       </c>
       <c r="F83" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G83" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="B84" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="C84" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="D84" t="b">
         <f>FALSE()</f>
@@ -15447,21 +15447,21 @@
         <v>14</v>
       </c>
       <c r="F84" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G84" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="B85" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="C85" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="D85" t="b">
         <f>TRUE()</f>
@@ -15471,21 +15471,21 @@
         <v>14</v>
       </c>
       <c r="F85" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G85" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="B86" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="C86" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="D86" t="b">
         <f>FALSE()</f>
@@ -15495,69 +15495,69 @@
         <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G86" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="B87" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="C87" t="s">
-        <v>1043</v>
+        <v>1215</v>
       </c>
       <c r="D87" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="E87" t="s">
         <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="G87" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="B88" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="C88" t="s">
-        <v>1048</v>
+        <v>1214</v>
       </c>
       <c r="D88" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="G88" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="B89" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="C89" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="D89" t="b">
         <f>TRUE()</f>
@@ -15567,21 +15567,21 @@
         <v>14</v>
       </c>
       <c r="F89" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G89" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="B90" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C90" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="D90" t="b">
         <f>FALSE()</f>
@@ -15591,21 +15591,21 @@
         <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G90" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="B91" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="C91" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="D91" t="b">
         <f>TRUE()</f>
@@ -15615,21 +15615,21 @@
         <v>14</v>
       </c>
       <c r="F91" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G91" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="B92" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="C92" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="D92" t="b">
         <f>FALSE()</f>
@@ -15639,21 +15639,21 @@
         <v>14</v>
       </c>
       <c r="F92" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G92" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="B93" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="C93" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="D93" t="b">
         <f>TRUE()</f>
@@ -15663,21 +15663,21 @@
         <v>14</v>
       </c>
       <c r="F93" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G93" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="B94" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="C94" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="D94" t="b">
         <f>FALSE()</f>
@@ -15687,21 +15687,21 @@
         <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G94" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="B95" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="C95" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="D95" t="b">
         <f>TRUE()</f>
@@ -15711,21 +15711,21 @@
         <v>14</v>
       </c>
       <c r="F95" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G95" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="B96" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="C96" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="D96" t="b">
         <f>FALSE()</f>
@@ -15735,21 +15735,21 @@
         <v>14</v>
       </c>
       <c r="F96" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G96" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="B97" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="C97" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="D97" t="b">
         <f>TRUE()</f>
@@ -15759,21 +15759,21 @@
         <v>14</v>
       </c>
       <c r="F97" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G97" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="B98" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="C98" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="D98" t="b">
         <f>FALSE()</f>
@@ -15783,21 +15783,21 @@
         <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G98" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="B99" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="C99" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="D99" t="b">
         <f>TRUE()</f>
@@ -15807,21 +15807,21 @@
         <v>14</v>
       </c>
       <c r="F99" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G99" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="B100" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="C100" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="D100" t="b">
         <f>FALSE()</f>
@@ -15831,21 +15831,21 @@
         <v>14</v>
       </c>
       <c r="F100" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G100" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="B101" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="C101" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="D101" t="b">
         <f>TRUE()</f>
@@ -15855,21 +15855,21 @@
         <v>14</v>
       </c>
       <c r="F101" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G101" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="B102" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="C102" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="D102" t="b">
         <f>FALSE()</f>
@@ -15879,21 +15879,21 @@
         <v>14</v>
       </c>
       <c r="F102" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G102" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="B103" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="C103" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="D103" t="b">
         <f>TRUE()</f>
@@ -15903,21 +15903,21 @@
         <v>14</v>
       </c>
       <c r="F103" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G103" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="B104" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="C104" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="D104" t="b">
         <f>FALSE()</f>
@@ -15927,10 +15927,10 @@
         <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G104" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
     </row>
   </sheetData>
@@ -15964,7 +15964,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -15978,46 +15978,46 @@
         <v>218</v>
       </c>
       <c r="D2" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="E2" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="H2" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="B3" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3" si="0">_xlfn.CONCAT("SD_",A3)</f>
         <v>SD_Y0</v>
       </c>
       <c r="E3" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="F3" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="G3" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="H3" t="str">
         <f ca="1">IFERROR(__xludf.dummyfunction("""\ce{["" &amp; REGEXREPLACE(B3,""_"",""_{\\text{"") &amp; ""}}]}"""),"\ce{[Total_{\text{C}}]}")</f>
@@ -16027,28 +16027,28 @@
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="B4" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="D4" t="str">
         <f>_xlfn.CONCAT("SD_",A4)</f>
         <v>SD_Y1</v>
       </c>
       <c r="E4" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="F4" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="G4" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="H4" t="str">
         <f ca="1">IFERROR(__xludf.dummyfunction("""\ce{["" &amp; REGEXREPLACE(B3,""_"",""_{\\text{"") &amp; ""}}]}"""),"\ce{[Total_{\text{C}}]}")</f>
@@ -16058,7 +16058,7 @@
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
     </row>
   </sheetData>
@@ -16086,7 +16086,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -16097,7 +16097,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -16108,16 +16108,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="D3" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -16148,7 +16148,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.45">
@@ -16159,114 +16159,114 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="K2" t="s">
         <v>1128</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L2" t="s">
         <v>1129</v>
       </c>
-      <c r="G2" t="s">
+      <c r="M2" t="s">
         <v>1130</v>
       </c>
-      <c r="H2" t="s">
+      <c r="N2" t="s">
         <v>1131</v>
       </c>
-      <c r="I2" t="s">
+      <c r="O2" t="s">
         <v>1132</v>
       </c>
-      <c r="J2" t="s">
+      <c r="P2" t="s">
         <v>1133</v>
       </c>
-      <c r="K2" t="s">
+      <c r="Q2" t="s">
         <v>1134</v>
       </c>
-      <c r="L2" t="s">
+      <c r="R2" t="s">
         <v>1135</v>
       </c>
-      <c r="M2" t="s">
+      <c r="S2" t="s">
         <v>1136</v>
       </c>
-      <c r="N2" t="s">
+      <c r="T2" t="s">
         <v>1137</v>
       </c>
-      <c r="O2" t="s">
+      <c r="U2" t="s">
         <v>1138</v>
       </c>
-      <c r="P2" t="s">
+      <c r="V2" t="s">
         <v>1139</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="W2" t="s">
         <v>1140</v>
       </c>
-      <c r="R2" t="s">
+      <c r="X2" t="s">
         <v>1141</v>
       </c>
-      <c r="S2" t="s">
+      <c r="Y2" t="s">
         <v>1142</v>
       </c>
-      <c r="T2" t="s">
+      <c r="Z2" t="s">
         <v>1143</v>
       </c>
-      <c r="U2" t="s">
+      <c r="AA2" t="s">
         <v>1144</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AB2" t="s">
         <v>1145</v>
-      </c>
-      <c r="W2" t="s">
-        <v>1146</v>
-      </c>
-      <c r="X2" t="s">
-        <v>1147</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>1148</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>1151</v>
       </c>
       <c r="AC2" t="s">
         <v>10</v>
       </c>
       <c r="AD2" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="AE2" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="AF2" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="AG2" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="B3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="D3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="E3" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="F3" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="G3">
         <v>2.0000000000063099E-2</v>
@@ -16342,24 +16342,24 @@
         <v>10000</v>
       </c>
       <c r="AG3" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="B4" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="D4" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="E4" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="F4" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="G4">
         <v>2.0000000000063099E-2</v>
@@ -16435,7 +16435,7 @@
         <v>40000</v>
       </c>
       <c r="AG4" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
     </row>
   </sheetData>
@@ -16458,7 +16458,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -16466,18 +16466,18 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="C2" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="D2" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="B3">
         <v>2100</v>
@@ -16491,7 +16491,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="B4">
         <v>2400</v>
@@ -16505,7 +16505,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="B5">
         <v>3900</v>
@@ -16519,7 +16519,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="B6">
         <v>5700</v>
@@ -16533,7 +16533,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="B7">
         <v>9300</v>

--- a/Viswan_2018.xlsx
+++ b/Viswan_2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santos\Documents\Git\Thesis_Code\Subcellular_Workflow_Matlab\Model\Model_Viswan_2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36898C4C-0BEC-430F-9C5F-A043CCDFCE36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BE707C-EBA5-41D7-891C-9ED7E570319E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5370" yWindow="2220" windowWidth="28800" windowHeight="15472" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="27045" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Defaults" sheetId="13" r:id="rId1"/>
@@ -3686,22 +3686,22 @@
     <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='E1I' TableTitle='Viswan_2018 E1I' TableType = 'QuantityMatrix'</t>
   </si>
   <si>
-    <t>(Vmax_R86*PIP2*Ca_PLC_g_p/(Kcat_R86+PIP2))</t>
-  </si>
-  <si>
-    <t>(Vmax_R85*PIP2*Ca_PLC_g/(Kcat_R85+PIP2))</t>
-  </si>
-  <si>
-    <t>Kcat_R85</t>
-  </si>
-  <si>
-    <t>Kcat_R86</t>
-  </si>
-  <si>
     <t>Vmax_R85</t>
   </si>
   <si>
     <t>Vmax_R86</t>
+  </si>
+  <si>
+    <t>(Vmax_R85*PIP2*Ca_PLC_g/(Km_R85+PIP2))</t>
+  </si>
+  <si>
+    <t>(Vmax_R86*PIP2*Ca_PLC_g_p/(Km_R86+PIP2))</t>
+  </si>
+  <si>
+    <t>Km_R85</t>
+  </si>
+  <si>
+    <t>Km_R86</t>
   </si>
 </sst>
 </file>
@@ -4444,7 +4444,7 @@
   <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7771,8 +7771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K162"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12454,7 +12454,7 @@
         <v>616</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>224</v>
@@ -12489,7 +12489,7 @@
         <v>618</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>1192</v>
@@ -12524,7 +12524,7 @@
         <v>620</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>224</v>
@@ -12559,7 +12559,7 @@
         <v>622</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>1192</v>
@@ -13440,8 +13440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87:D88"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15509,7 +15509,7 @@
         <v>1038</v>
       </c>
       <c r="C87" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D87" t="b">
         <f>FALSE()</f>
@@ -15533,7 +15533,7 @@
         <v>1042</v>
       </c>
       <c r="C88" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="D88" t="b">
         <f>FALSE()</f>

--- a/Viswan_2018.xlsx
+++ b/Viswan_2018.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santos\Documents\GitHub\Subcellular_workflow\Matlab\Model\Model_Viswan_2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62708ED9-70B3-4647-A5F6-FBB152D4B5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CFF578-5541-4C57-A1E7-529A1AB0A0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Defaults" sheetId="13" r:id="rId1"/>
-    <sheet name="Compartment" sheetId="11" r:id="rId2"/>
-    <sheet name="Compound" sheetId="1" r:id="rId3"/>
-    <sheet name="Parameter" sheetId="2" r:id="rId4"/>
-    <sheet name="Reaction" sheetId="3" r:id="rId5"/>
-    <sheet name="Output" sheetId="4" r:id="rId6"/>
-    <sheet name="Expression" sheetId="5" r:id="rId7"/>
-    <sheet name="Experiments" sheetId="6" r:id="rId8"/>
-    <sheet name="E0" sheetId="7" r:id="rId9"/>
-    <sheet name="E0I" sheetId="8" r:id="rId10"/>
-    <sheet name="E1" sheetId="9" r:id="rId11"/>
-    <sheet name="E1I" sheetId="10" r:id="rId12"/>
+    <sheet name="Definitions" sheetId="14" r:id="rId2"/>
+    <sheet name="Compartment" sheetId="11" r:id="rId3"/>
+    <sheet name="Compound" sheetId="1" r:id="rId4"/>
+    <sheet name="Parameter" sheetId="2" r:id="rId5"/>
+    <sheet name="Reaction" sheetId="3" r:id="rId6"/>
+    <sheet name="Output" sheetId="4" r:id="rId7"/>
+    <sheet name="Expression" sheetId="5" r:id="rId8"/>
+    <sheet name="Experiments" sheetId="6" r:id="rId9"/>
+    <sheet name="E0" sheetId="7" r:id="rId10"/>
+    <sheet name="E0I" sheetId="8" r:id="rId11"/>
+    <sheet name="E1" sheetId="9" r:id="rId12"/>
+    <sheet name="E1I" sheetId="10" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="1220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3553" uniqueCount="1456">
   <si>
     <t>!!SBtab</t>
   </si>
@@ -3647,42 +3648,9 @@
     <t>Time_E1T0_Y1</t>
   </si>
   <si>
-    <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='Compartment' TableTitle='Viswan_2018 Compound' TableType = 'Quantity'</t>
-  </si>
-  <si>
     <t>TableName='Defaults' TableType='Quantity' TableTitle='Default units for this model' SBtabVersion='1.0' Document='Viswan_2018'</t>
   </si>
   <si>
-    <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='Compound' TableTitle='Viswan_2018 Compound' TableType = 'Compound'</t>
-  </si>
-  <si>
-    <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='Parameter' TableTitle='Viswan_2018 Parameter' TableType = 'Quantity'</t>
-  </si>
-  <si>
-    <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='Reaction' TableTitle='Viswan_2018 Reaction' TableType = 'Reaction'</t>
-  </si>
-  <si>
-    <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='Output' TableTitle='Viswan_2018 Output' TableType = 'Quantity'</t>
-  </si>
-  <si>
-    <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='Expression' TableTitle='Viswan_2018 Expression' TableType = 'Expression'</t>
-  </si>
-  <si>
-    <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='Experiments' TableTitle='Viswan_2018 Experiments' TableType = 'QuantityMatrix'</t>
-  </si>
-  <si>
-    <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='E0' TableTitle='Viswan_2018 E0' TableType = 'QuantityMatrix'</t>
-  </si>
-  <si>
-    <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='E0I' TableTitle='Viswan_2018 E0I' TableType = 'QuantityMatrix'</t>
-  </si>
-  <si>
-    <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='E1' TableTitle='Viswan_2018 E1' TableType = 'QuantityMatrix'</t>
-  </si>
-  <si>
-    <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='E1I' TableTitle='Viswan_2018 E1I' TableType = 'QuantityMatrix'</t>
-  </si>
-  <si>
     <t>Vmax_R85</t>
   </si>
   <si>
@@ -3702,6 +3670,747 @@
   </si>
   <si>
     <t>!Assignment</t>
+  </si>
+  <si>
+    <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='Compartment' TableTitle='Compound' TableType = 'Quantity'</t>
+  </si>
+  <si>
+    <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='Compound' TableTitle='Compound' TableType = 'Compound'</t>
+  </si>
+  <si>
+    <t>!ComponentName</t>
+  </si>
+  <si>
+    <t>!ComponentType</t>
+  </si>
+  <si>
+    <t>!IsPartOf</t>
+  </si>
+  <si>
+    <t>!Format</t>
+  </si>
+  <si>
+    <t>!Description</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ReferenceName</t>
+  </si>
+  <si>
+    <t>Reference title, authors, etc. (as free text)</t>
+  </si>
+  <si>
+    <t>ReferencePubMed</t>
+  </si>
+  <si>
+    <t>Reference PubMed ID</t>
+  </si>
+  <si>
+    <t>ReferenceDOI</t>
+  </si>
+  <si>
+    <t>Reference DOI</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Description of the row element</t>
+  </si>
+  <si>
+    <t>Modifier</t>
+  </si>
+  <si>
+    <t>Modifier of this reaction</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Entity name</t>
+  </si>
+  <si>
+    <t>MiriamAnnotations</t>
+  </si>
+  <si>
+    <t>Entity ID</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Biochemical type of entity</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Short symbol (e.g. gene symbol)</t>
+  </si>
+  <si>
+    <t>Position:x</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>x coordinate for graphical display</t>
+  </si>
+  <si>
+    <t>Position:y</t>
+  </si>
+  <si>
+    <t>y coordinate for graphical display</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Reaction shortname</t>
+  </si>
+  <si>
+    <t>SBML:reaction:id</t>
+  </si>
+  <si>
+    <t>SBML ID of reaction</t>
+  </si>
+  <si>
+    <t>ReactionFormula</t>
+  </si>
+  <si>
+    <t>Reaction formula</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Compartment for localised reaction</t>
+  </si>
+  <si>
+    <t>Enzyme</t>
+  </si>
+  <si>
+    <t>Enzyme catalysing the reaction</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Model(s) in which the reaction is involved</t>
+  </si>
+  <si>
+    <t>Pathway</t>
+  </si>
+  <si>
+    <t>Pathway(s) in which the reaction is involved</t>
+  </si>
+  <si>
+    <t>SubreactionOf</t>
+  </si>
+  <si>
+    <t>Mark as subreaction of a (lumped) reaction</t>
+  </si>
+  <si>
+    <t>IsComplete</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Reaction formula includes all cofactors etc.</t>
+  </si>
+  <si>
+    <t>IsReversible</t>
+  </si>
+  <si>
+    <t>Reaction should be treated as irreversible</t>
+  </si>
+  <si>
+    <t>IsInEquilibrium</t>
+  </si>
+  <si>
+    <t>Reaction approximately in equilibrium</t>
+  </si>
+  <si>
+    <t>IsExchangeReaction</t>
+  </si>
+  <si>
+    <t>Some reactants are left out</t>
+  </si>
+  <si>
+    <t>Flux</t>
+  </si>
+  <si>
+    <t>Metabolic flux through the reaction</t>
+  </si>
+  <si>
+    <t>IsNonEnzymatic</t>
+  </si>
+  <si>
+    <t>Non-catalysed reaction</t>
+  </si>
+  <si>
+    <t>KineticLaw</t>
+  </si>
+  <si>
+    <t>Kinetic law of the reaction</t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
+    <t>Name of the gene for the catalysing enzyme</t>
+  </si>
+  <si>
+    <t>Operon</t>
+  </si>
+  <si>
+    <t>Operon for the gene of the catalysing enzyme</t>
+  </si>
+  <si>
+    <t>Enzyme:SBML:species:id</t>
+  </si>
+  <si>
+    <t>SBML ID of enzyme</t>
+  </si>
+  <si>
+    <t>Enzyme:SBML:parameter:id</t>
+  </si>
+  <si>
+    <t>BuildReaction</t>
+  </si>
+  <si>
+    <t>Include reaction in SBML model</t>
+  </si>
+  <si>
+    <t>BuildEnzyme</t>
+  </si>
+  <si>
+    <t>Include enzyme in SBML model</t>
+  </si>
+  <si>
+    <t>BuildEnzymeProduction</t>
+  </si>
+  <si>
+    <t>Describe enzyme production in SBML model</t>
+  </si>
+  <si>
+    <t>SBOTerm</t>
+  </si>
+  <si>
+    <t>SBO term of the entity</t>
+  </si>
+  <si>
+    <t>Identifiers</t>
+  </si>
+  <si>
+    <t>Annotation of the entity</t>
+  </si>
+  <si>
+    <t>Compound</t>
+  </si>
+  <si>
+    <t>Compound shortname</t>
+  </si>
+  <si>
+    <t>SBML:species:id</t>
+  </si>
+  <si>
+    <t>SBML species ID of the entity</t>
+  </si>
+  <si>
+    <t>SBML:speciestype:id</t>
+  </si>
+  <si>
+    <t>SBML speciestype ID of the entity</t>
+  </si>
+  <si>
+    <t>InitialValue</t>
+  </si>
+  <si>
+    <t>Initial amount or concentration</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Unit for initial value</t>
+  </si>
+  <si>
+    <t>Compartment for localised entities</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>State of the entity</t>
+  </si>
+  <si>
+    <t>CompoundSumFormula</t>
+  </si>
+  <si>
+    <t>Chemical sum formula</t>
+  </si>
+  <si>
+    <t>StructureFormula</t>
+  </si>
+  <si>
+    <t>Chemical structure formula</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>Electrical charge number</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Molecular mass</t>
+  </si>
+  <si>
+    <t>IsConstant</t>
+  </si>
+  <si>
+    <t>Substance with fixed concentrations</t>
+  </si>
+  <si>
+    <t>EnzymeRole</t>
+  </si>
+  <si>
+    <t>Enzymatic activity</t>
+  </si>
+  <si>
+    <t>RegulatorRole</t>
+  </si>
+  <si>
+    <t>Regulatory activity</t>
+  </si>
+  <si>
+    <t>Enzyme shortname</t>
+  </si>
+  <si>
+    <t>CatalysedReaction</t>
+  </si>
+  <si>
+    <t>Catalysed reaction</t>
+  </si>
+  <si>
+    <t>Pathway name (free text)</t>
+  </si>
+  <si>
+    <t>Gene coding for enzyme (shortname)</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>Protein shortname</t>
+  </si>
+  <si>
+    <t>Gene shortname</t>
+  </si>
+  <si>
+    <t>Protein mass</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Protein size</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>Compartment shortname</t>
+  </si>
+  <si>
+    <t>SBML:compartment:id</t>
+  </si>
+  <si>
+    <t>SBML compartment ID</t>
+  </si>
+  <si>
+    <t>OuterCompartment</t>
+  </si>
+  <si>
+    <t>Surrounding compartment (short)</t>
+  </si>
+  <si>
+    <t>OuterCompartment:SBML:compartment:id</t>
+  </si>
+  <si>
+    <t>Surrounding compartment (name)</t>
+  </si>
+  <si>
+    <t>Compartment size</t>
+  </si>
+  <si>
+    <t>Physical unit</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Quantity shortname</t>
+  </si>
+  <si>
+    <t>QuantityName</t>
+  </si>
+  <si>
+    <t>Quantity (name)</t>
+  </si>
+  <si>
+    <t>QuantityType</t>
+  </si>
+  <si>
+    <t>Quantity type (e.g. from SBO)</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Simple value</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Algebraic mean</t>
+  </si>
+  <si>
+    <t>Std</t>
+  </si>
+  <si>
+    <t>Standard deviation (positive)</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Lower bound</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Upper bound</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>ErrorName</t>
+  </si>
+  <si>
+    <t>There is a QuantityMatrix M associated with this Quantity; the ErrorName points out which column of M contains the measurement noise quantification (the statistical nature of the error is not specified)</t>
+  </si>
+  <si>
+    <t>ErrorType</t>
+  </si>
+  <si>
+    <t>An indicator that further explains the nature of the measurement error (systematic, random, std, 95% interval)</t>
+  </si>
+  <si>
+    <t>GeometricMean</t>
+  </si>
+  <si>
+    <t>Geometric mean</t>
+  </si>
+  <si>
+    <t>Sign</t>
+  </si>
+  <si>
+    <t>{+,-,0}</t>
+  </si>
+  <si>
+    <t>ProbDist</t>
+  </si>
+  <si>
+    <t>Probability distribution</t>
+  </si>
+  <si>
+    <t>SBML:parameter:id</t>
+  </si>
+  <si>
+    <t>Parameter ID in SBML file</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Scale (e.g. logarithm)</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Time value</t>
+  </si>
+  <si>
+    <t>TimePoint</t>
+  </si>
+  <si>
+    <t>Time point name or identifier</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>experimental condition name (free text)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>pH value in measurement</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Temperature in measurement</t>
+  </si>
+  <si>
+    <t>Compartment (shortname)</t>
+  </si>
+  <si>
+    <t>Location:SBML:compartment:id</t>
+  </si>
+  <si>
+    <t>SBML ID of compartment</t>
+  </si>
+  <si>
+    <t>Related compound (shortname)</t>
+  </si>
+  <si>
+    <t>Compound:SBML:species:id</t>
+  </si>
+  <si>
+    <t>SBML ID of compound</t>
+  </si>
+  <si>
+    <t>Related reaction (shortname)</t>
+  </si>
+  <si>
+    <t>Reaction:SBML:reaction:id</t>
+  </si>
+  <si>
+    <t>Enyzme</t>
+  </si>
+  <si>
+    <t>Related enzyme (shortname)</t>
+  </si>
+  <si>
+    <t>Enyzme:SBML:species:id</t>
+  </si>
+  <si>
+    <t>Enyzme:SBML:parameter:id</t>
+  </si>
+  <si>
+    <t>Related gene</t>
+  </si>
+  <si>
+    <t>Organism</t>
+  </si>
+  <si>
+    <t>Provenance</t>
+  </si>
+  <si>
+    <t>Provenance of the entity</t>
+  </si>
+  <si>
+    <t>Regulator</t>
+  </si>
+  <si>
+    <t>Regulator shortname</t>
+  </si>
+  <si>
+    <t>State of the regulator</t>
+  </si>
+  <si>
+    <t>TargetGene</t>
+  </si>
+  <si>
+    <t>Target gene</t>
+  </si>
+  <si>
+    <t>TargetOperon</t>
+  </si>
+  <si>
+    <t>Target operon</t>
+  </si>
+  <si>
+    <t>TargetPromoter</t>
+  </si>
+  <si>
+    <t>Target promoter</t>
+  </si>
+  <si>
+    <t>LocusName</t>
+  </si>
+  <si>
+    <t>Gene locus name</t>
+  </si>
+  <si>
+    <t>GeneProduct</t>
+  </si>
+  <si>
+    <t>Gene product shortname</t>
+  </si>
+  <si>
+    <t>GeneProduct:SBML:species:id</t>
+  </si>
+  <si>
+    <t>SBML ID of protein</t>
+  </si>
+  <si>
+    <t>Operon in which gene is located</t>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t>Type of quantitative relation</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>Element at beginning of arrow</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Element at arrowhead</t>
+  </si>
+  <si>
+    <t>IsSymmetric</t>
+  </si>
+  <si>
+    <t>Flag indicating non-symmetric relations</t>
+  </si>
+  <si>
+    <t>Value:QuantityType</t>
+  </si>
+  <si>
+    <t>Numerical value assigned to the relation</t>
+  </si>
+  <si>
+    <t>ComponentName</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Name of component (table, column, attribute to be defined)</t>
+  </si>
+  <si>
+    <t>ComponentType</t>
+  </si>
+  <si>
+    <t>Type of component</t>
+  </si>
+  <si>
+    <t>IsPartOf</t>
+  </si>
+  <si>
+    <t>Name of parent component</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Free text description of component</t>
+  </si>
+  <si>
+    <t>QuantityMatrix</t>
+  </si>
+  <si>
+    <t>&gt;Table:Column</t>
+  </si>
+  <si>
+    <t>Pointer to column in another table</t>
+  </si>
+  <si>
+    <t>&gt;Document:Table:Column</t>
+  </si>
+  <si>
+    <t>Pointer to column in another document</t>
+  </si>
+  <si>
+    <t>Protein:SBML:species:id</t>
+  </si>
+  <si>
+    <t>ReactionID</t>
+  </si>
+  <si>
+    <t>StoichiometricMatrix</t>
+  </si>
+  <si>
+    <t>Stoichiometry</t>
+  </si>
+  <si>
+    <t>Stoichiometric coefficient of the reactant</t>
+  </si>
+  <si>
+    <t>Substrate</t>
+  </si>
+  <si>
+    <t>Substrate of the reaction</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Product of the reaction</t>
+  </si>
+  <si>
+    <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='Definitions' TableTitle='Definitions' TableType = 'Definition'</t>
+  </si>
+  <si>
+    <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='Parameter' TableTitle='Parameter' TableType = 'Quantity'</t>
+  </si>
+  <si>
+    <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='Reaction' TableTitle='Reaction' TableType = 'Reaction'</t>
+  </si>
+  <si>
+    <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='Output' TableTitle='Output' TableType = 'Quantity'</t>
+  </si>
+  <si>
+    <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='Expression' TableTitle='Expression' TableType = 'Expression'</t>
+  </si>
+  <si>
+    <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='Experiments' TableTitle='Experiments' TableType = 'QuantityMatrix'</t>
+  </si>
+  <si>
+    <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='E0' TableTitle='E0' TableType = 'QuantityMatrix'</t>
+  </si>
+  <si>
+    <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='E0I' TableTitle='E0I' TableType = 'QuantityMatrix'</t>
+  </si>
+  <si>
+    <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='E1' TableTitle='E1' TableType = 'QuantityMatrix'</t>
+  </si>
+  <si>
+    <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='E1I' TableTitle='E1I' TableType = 'QuantityMatrix'</t>
   </si>
 </sst>
 </file>
@@ -4061,14 +4770,14 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -4076,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4151,11 +4860,118 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B3">
+        <v>2100</v>
+      </c>
+      <c r="C3">
+        <v>0.02</v>
+      </c>
+      <c r="D3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B4">
+        <v>2400</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B5">
+        <v>3900</v>
+      </c>
+      <c r="C5">
+        <v>0.12</v>
+      </c>
+      <c r="D5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B6">
+        <v>5700</v>
+      </c>
+      <c r="C6">
+        <v>0.1</v>
+      </c>
+      <c r="D6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B7">
+        <v>9300</v>
+      </c>
+      <c r="C7">
+        <v>0.08</v>
+      </c>
+      <c r="D7">
+        <v>0.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4165,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1210</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4206,12 +5022,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4221,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1211</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4327,12 +5143,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4342,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1212</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4384,6 +5200,4398 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8EE858-D8BD-4386-B968-AEF50E74E128}">
+  <dimension ref="A1:E258"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E137" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E143" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E146" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E147" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E148" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E149" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E150" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E151" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E156" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E158" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E159" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E160" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E162" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E163" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E164" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E166" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E169" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E170" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E171" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E172" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E173" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E176" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E177" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E178" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D179" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E179" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E180" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D181" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E181" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E182" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E183" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D184" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E184" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D185" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E185" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E186" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E187" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E188" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E189" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E190" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E191" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C192" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E192" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E193" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E194" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E196" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E198" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E199" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E200" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E201" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E202" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E203" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E204" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E205" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E206" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E207" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E208" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E209" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E210" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C211" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E211" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E212" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E213" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E214" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E215" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E216" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D217" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E217" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E218" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E219" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D220" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E220" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D221" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E221" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C222" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D222" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E222" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E223" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C224" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D224" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E224" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C225" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D225" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E225" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C226" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D226" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E226" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C227" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D227" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E227" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C228" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D228" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E228" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C229" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D229" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E229" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D230" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E230" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D231" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E231" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C232" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D232" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E232" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D233" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E233" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D234" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E234" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C235" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D235" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E235" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C236" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D236" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E236" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C237" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D237" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E237" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D238" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E238" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E239" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D240" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E240" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C241" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D241" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E241" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C242" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D242" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E242" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E243" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D244" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E244" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E245" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D246" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E246" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D247" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E247" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D248" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E248" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D249" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E249" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D250" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E250" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E251" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D252" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E252" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D253" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E253" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E254" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D255" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E255" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D256" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E256" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D257" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E257" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D258" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E258" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483A01AC-D3B1-48E9-BD0D-1079AB636080}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -4403,7 +9611,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1201</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4439,12 +9647,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4463,7 +9671,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1203</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -4483,7 +9691,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1219</v>
+        <v>1208</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
@@ -7767,12 +12975,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K162"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7794,7 +13002,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1204</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -12454,7 +17662,7 @@
         <v>615</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>223</v>
@@ -12489,7 +17697,7 @@
         <v>617</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1217</v>
+        <v>1206</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>1191</v>
@@ -12524,7 +17732,7 @@
         <v>619</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>223</v>
@@ -12559,7 +17767,7 @@
         <v>621</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1218</v>
+        <v>1207</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>1191</v>
@@ -13436,12 +18644,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13459,7 +18667,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1205</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -15509,7 +20717,7 @@
         <v>1037</v>
       </c>
       <c r="C87" t="s">
-        <v>1215</v>
+        <v>1204</v>
       </c>
       <c r="D87" t="b">
         <f>FALSE()</f>
@@ -15533,7 +20741,7 @@
         <v>1041</v>
       </c>
       <c r="C88" t="s">
-        <v>1216</v>
+        <v>1205</v>
       </c>
       <c r="D88" t="b">
         <f>FALSE()</f>
@@ -15938,12 +21146,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15964,7 +21172,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1206</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -16066,12 +21274,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16086,7 +21294,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1207</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -16128,12 +21336,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AG4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16148,7 +21356,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1208</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
@@ -16436,113 +21644,6 @@
       </c>
       <c r="AG4" t="s">
         <v>1200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B3">
-        <v>2100</v>
-      </c>
-      <c r="C3">
-        <v>0.02</v>
-      </c>
-      <c r="D3">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B4">
-        <v>2400</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B5">
-        <v>3900</v>
-      </c>
-      <c r="C5">
-        <v>0.12</v>
-      </c>
-      <c r="D5">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B6">
-        <v>5700</v>
-      </c>
-      <c r="C6">
-        <v>0.1</v>
-      </c>
-      <c r="D6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B7">
-        <v>9300</v>
-      </c>
-      <c r="C7">
-        <v>0.08</v>
-      </c>
-      <c r="D7">
-        <v>0.08</v>
       </c>
     </row>
   </sheetData>
